--- a/bean-mapper-test/docs/jdk8-05/PerformanceTestWithCompleteFixtures.xlsx
+++ b/bean-mapper-test/docs/jdk8-05/PerformanceTestWithCompleteFixtures.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
-    <t>02.10.2017 um 21:18 Uhr</t>
+    <t>03.10.2017 um 21:04 Uhr</t>
   </si>
   <si>
     <t>Name des Messpunkts</t>
@@ -170,19 +170,19 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.699206</v>
+        <v>0.421637</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -196,22 +196,22 @@
         <v>10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>579.0</v>
+        <v>590.0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="E4" t="n">
-        <v>235.0</v>
+        <v>197.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>57.9</v>
+        <v>59.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>63.051</v>
+        <v>51.6096</v>
       </c>
       <c r="H4" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -222,22 +222,22 @@
         <v>10.0</v>
       </c>
       <c r="C5" t="n">
-        <v>111.0</v>
+        <v>119.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>87.0</v>
+        <v>84.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>26.6935</v>
+        <v>25.366</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,22 +248,22 @@
         <v>10.0</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.875595</v>
+        <v>1.0328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -274,22 +274,22 @@
         <v>10.0</v>
       </c>
       <c r="C7" t="n">
-        <v>477.0</v>
+        <v>498.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" t="n">
-        <v>246.0</v>
+        <v>208.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>69.9334</v>
+        <v>55.8168</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -300,19 +300,19 @@
         <v>10.0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.567646</v>
+        <v>0.527046</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -326,19 +326,19 @@
         <v>10.0</v>
       </c>
       <c r="C9" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
       <c r="D9" t="n">
         <v>2.0</v>
       </c>
       <c r="E9" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>4.5326</v>
+        <v>4.00139</v>
       </c>
       <c r="H9" t="n">
         <v>2.0</v>
@@ -352,22 +352,22 @@
         <v>10.0</v>
       </c>
       <c r="C10" t="n">
-        <v>233.0</v>
+        <v>135.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" t="n">
-        <v>113.0</v>
+        <v>24.0</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>23.3</v>
+        <v>13.5</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>31.6054</v>
+        <v>5.35931</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -422,25 +422,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C3" t="n">
-        <v>418.0</v>
+        <v>445.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.0162963</v>
+        <v>0.01783</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.143094</v>
+        <v>0.13414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -448,22 +448,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C4" t="n">
-        <v>279912.0</v>
+        <v>287457.0</v>
       </c>
       <c r="D4" t="n">
         <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>316.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>10.9127</v>
+        <v>11.5176</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>1.00023</v>
+        <v>2.25458</v>
       </c>
       <c r="H4" t="n">
         <v>11.0</v>
@@ -474,22 +474,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C5" t="n">
-        <v>13164.0</v>
+        <v>12851.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>0.513216</v>
+        <v>0.514905</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>0.533491</v>
+        <v>0.537862</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -500,22 +500,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4665.0</v>
+        <v>4528.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.181871</v>
+        <v>0.181425</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.397297</v>
+        <v>0.390644</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -526,22 +526,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C7" t="n">
-        <v>169089.0</v>
+        <v>177243.0</v>
       </c>
       <c r="D7" t="n">
         <v>6.0</v>
       </c>
       <c r="E7" t="n">
-        <v>24.0</v>
+        <v>68.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>6.59216</v>
+        <v>7.10165</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>0.889651</v>
+        <v>1.11406</v>
       </c>
       <c r="H7" t="n">
         <v>7.0</v>
@@ -552,22 +552,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.0</v>
+        <v>475.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0136062</v>
+        <v>0.019032</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.11917</v>
+        <v>0.138098</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -578,25 +578,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C9" t="n">
-        <v>19331.0</v>
+        <v>19631.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>0.753645</v>
+        <v>0.786561</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>0.477914</v>
+        <v>0.470384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -604,22 +604,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>25650.0</v>
+        <v>24958.0</v>
       </c>
       <c r="C10" t="n">
-        <v>90273.0</v>
+        <v>73375.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>47.0</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>3.51942</v>
+        <v>2.93994</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.706068</v>
+        <v>0.648847</v>
       </c>
       <c r="H10" t="n">
         <v>3.0</v>
@@ -653,16 +653,16 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="2">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.018</v>
+        <v>0.029</v>
       </c>
       <c r="E14" t="n" s="2">
-        <v>0.0153</v>
+        <v>0.0177</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.01535</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="15">
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="n" s="2">
-        <v>19.0</v>
+        <v>23.4</v>
       </c>
       <c r="C15" t="n" s="2">
-        <v>14.32</v>
+        <v>18.24</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>11.221</v>
+        <v>12.243</v>
       </c>
       <c r="E15" t="n" s="2">
-        <v>10.8719</v>
+        <v>11.4035</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>10.8939</v>
+        <v>11.5201</v>
       </c>
     </row>
     <row r="16">
@@ -690,19 +690,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="n" s="2">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="C16" t="n" s="2">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="E16" t="n" s="2">
-        <v>0.5158</v>
+        <v>0.5105</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>0.5135</v>
+        <v>0.5163</v>
       </c>
     </row>
     <row r="17">
@@ -710,19 +710,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="n" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C17" t="n" s="2">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.237</v>
+        <v>0.256</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>0.2035</v>
+        <v>0.192</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.1852</v>
+        <v>0.1813</v>
       </c>
     </row>
     <row r="18">
@@ -730,19 +730,19 @@
         <v>13</v>
       </c>
       <c r="B18" t="n" s="2">
-        <v>11.7</v>
+        <v>17.2</v>
       </c>
       <c r="C18" t="n" s="2">
-        <v>9.67</v>
+        <v>13.65</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>6.93</v>
+        <v>7.569</v>
       </c>
       <c r="E18" t="n" s="2">
-        <v>6.5499</v>
+        <v>7.0011</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>6.5731</v>
+        <v>7.0975</v>
       </c>
     </row>
     <row r="19">
@@ -750,19 +750,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="n" s="2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C19" t="n" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>0.072</v>
+        <v>0.092</v>
       </c>
       <c r="E19" t="n" s="2">
-        <v>0.0174</v>
+        <v>0.0209</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>0.014</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="20">
@@ -770,19 +770,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="n" s="2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="C20" t="n" s="2">
-        <v>0.83</v>
+        <v>1.11</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.759</v>
+        <v>0.793</v>
       </c>
       <c r="E20" t="n" s="2">
-        <v>0.7505</v>
+        <v>0.7702</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.7524</v>
+        <v>0.78635</v>
       </c>
     </row>
     <row r="21">
@@ -790,19 +790,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="n" s="2">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="C21" t="n" s="2">
-        <v>5.62</v>
+        <v>5.83</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>3.759</v>
+        <v>3.162</v>
       </c>
       <c r="E21" t="n" s="2">
-        <v>3.527</v>
+        <v>2.9261</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>3.51565</v>
+        <v>2.94495</v>
       </c>
     </row>
   </sheetData>
